--- a/База данных.xlsx
+++ b/База данных.xlsx
@@ -14,54 +14,116 @@
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
-  <si>
-    <t>Артур</t>
-  </si>
-  <si>
-    <t>Монтажники опс</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
+  <si>
+    <t>Проект МО ОПС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сфера деятельности: Противопожарные системы, Пожарное оборудование, Системы безопасности и охраны Оплата картой, системы видеонаблюдения, ручные системы оповещения </t>
   </si>
   <si>
     <t>ОПС</t>
   </si>
   <si>
-    <t>Уфа</t>
-  </si>
-  <si>
-    <t>https://www.avito.ru//ufa/predlozheniya_uslug/montazhniki_ops_2045378946</t>
-  </si>
-  <si>
-    <t>Мимино</t>
-  </si>
-  <si>
-    <t>Монтаж систем опс, свн</t>
-  </si>
-  <si>
-    <t>https://www.avito.ru//ufa/predlozheniya_uslug/montazh_sistem_ops_svn_1965697642</t>
-  </si>
-  <si>
-    <t>dmirtiy</t>
-  </si>
-  <si>
-    <t>Монтаж и пуско-наладка систем опс, скуд, соуэ, вид</t>
-  </si>
-  <si>
-    <t>https://www.avito.ru//ufa/predlozheniya_uslug/montazh_i_pusko-naladka_sistem_ops_skud_soue_vid_1570104819</t>
+    <t>Екатеринбург</t>
+  </si>
+  <si>
+    <t>https://uslugi.yandex.ru/profile/ProektMoOps-sprav39902408898</t>
+  </si>
+  <si>
+    <t>Ильгиз Оскарович Гафурьянов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Работаю инженером по слаботочным сетям. В этой области имею опыт 11 лет. ВОЛС, ОПС, СКУД, видеонаблюдение, электрика. Качественно выполню работы любой сложности. Для частных лиц: бюджетные системы с оповещением на телефон и управлением с телефона. Либо варианты для малых- средних предприятий, комплексные системы инженерно- технических средств охраны. Обслуживание ваших систем недорого и своевременно. </t>
+  </si>
+  <si>
+    <t>https://uslugi.yandex.ru/profile/IlgizOskarovichGafuryanov-494857</t>
+  </si>
+  <si>
+    <t>Денис Сергеевич П.</t>
+  </si>
+  <si>
+    <t>Опытный инженер-монтажник. (Самозанятый) Дорогие заказчики !!!  Очень мало свободного времени, постоянные командировки, - по этому могу быть недоступен или скидывать звонок.  Приоритетный вид связи для конкретных ком. предложений эл.почта или ватцап (номер в контактах)</t>
+  </si>
+  <si>
+    <t>https://uslugi.yandex.ru/profile/DenisSergeevichP-1026989</t>
+  </si>
+  <si>
+    <t>Монтажная компания Мариза-ОПС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сфера деятельности: Противопожарные системы, Системы безопасности и охраны, Огнезащита, Электромонтажные работы, Монтажные работы </t>
+  </si>
+  <si>
+    <t>https://uslugi.yandex.ru/profile/MontazhnayaKompaniyaMarizaops-sprav1099790778</t>
+  </si>
+  <si>
+    <t>Алексей Е.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Я индивидуальный предприниматель. Всегда берусь только за ту работу, которую точно смогу выполнить на основе моих знаний и навыков. Опыт большой. Есть весь инструмент для выполнения монтажа слаботочных систем: ОПС, СКУД и т.д., преимущественно это Makita. Так же есть определенный комплект ПО и знаний для диагностики и решения проблем в работе ПК. Всегда отношусь ответственно к работе и к клиентам.  </t>
+  </si>
+  <si>
+    <t>https://uslugi.yandex.ru/profile/AleksejE-983973</t>
+  </si>
+  <si>
+    <t>ООО "Сила притяжения"</t>
+  </si>
+  <si>
+    <t>Проектирование, обслуживание, монтаж и настройка автоматической пожарной сигнализации и систем оповещения управления эвакуацией, систем дымоудаления, наличие всех необходимых лицензий, охранных систем, офисных компьютерных систем, систем контроля доступа  любой сложности. Монтаж СКС,Монтаж СКУД, ОПС. Установка видеонаблюдения. Юр.лицо, договор, гарантия.</t>
+  </si>
+  <si>
+    <t>https://uslugi.yandex.ru/profile/OooSilaPrityazheniya-247490</t>
+  </si>
+  <si>
+    <t>Орден</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Частная охранная организация «Орден»  Надёжная защита! Профессиональный и Индивидуальный подход! А также – конкурентная цена на качественные услуги!       За время своей деятельности с 1997года ООО ЧОО «Орден»  приобрело бесценный опыт и завоевало надёжную репутацию на рынке охранных услуг. Основной состав сотрудников охранной организации – это офицеры запаса силовых структур прошедшие профессиональную подготовку, имеющие  опыт работы в службе охраны.  В ООО ЧОО «Орден» работает две группы быстрого реагирования в г. Арамиль и  в п. Бобровской и близ лежащих населенных пунктах.      ООО ЧОО «Орден» предоставит защиту объектам любой сложности:         • охрана квартир;     • охрана офисов;     • охрана предприятий;     • охрана складских помещений;     • охрана супермаркетов;     • охрана торговых центров;     • охрана ТСЖ;     • охрана учебных заведений;     • охрана дачных домиков;     • других форм собственности. Монтируем современное охранное, пожарное оборудование и системы видео наблюдения по выгодным ценам.    Абонентская плата от 400  до 1000 рублей в месяц для физических лиц и от 1000 до 2000 рублей в месяц для юридических лиц ООО ЧОО «Орден» – гарант Вашего спокойствия!   </t>
+  </si>
+  <si>
+    <t>https://uslugi.yandex.ru/profile/Orden-630159</t>
+  </si>
+  <si>
+    <t>Denis V.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Здравствуйте! Живу в Екатеринбурге, есть семья, веду очень активный образ жизни. Основное время уделяю работе, занимаюсь электрическими и слаботочным сетями -электрика в квартирах, деревянных домах, офисах, складских помещениях; домофония, видеонаблюдение, контроль доступа, автоматические шлагбаумы. СКС, вообщем всё что связанно с электроникой и проводами, жду вашего звонка . Проектирую и помогаю с подбором оборудования, объясню что к чему простым языком . всегда есть альтернатива и доступные цены, как у поставщиков так и в магазинах города. </t>
+  </si>
+  <si>
+    <t>https://uslugi.yandex.ru/profile/DenisV-486605</t>
+  </si>
+  <si>
+    <t>Артем Ж.</t>
+  </si>
+  <si>
+    <t>Профессионально занимаюсь ремонтом компьютеров, смартфонов и т.п. ремонт электросамокатов, металоискателей, мелкой бытовой техники, оргтехники, заправка картриджей. Чек, гарантия!</t>
+  </si>
+  <si>
+    <t>https://uslugi.yandex.ru/profile/ArtemZh-1026840</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -84,14 +146,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -393,29 +463,31 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:J742"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="C121" workbookViewId="0">
+      <selection activeCell="B139" sqref="A139:XFD139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="52.28515625" customWidth="1"/>
     <col min="2" max="2" width="53.7109375" customWidth="1"/>
     <col min="3" max="3" width="24.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="24.5703125" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1">
-        <v>89996225476</v>
+        <v>79014305262</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -427,15 +499,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="1">
-        <v>89659415811</v>
+        <v>79058082940</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -447,15 +519,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="1">
-        <v>89872599875</v>
+        <v>79068082378</v>
       </c>
       <c r="D3" t="s">
         <v>2</v>
@@ -466,6 +538,356 @@
       <c r="F3" t="s">
         <v>10</v>
       </c>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1">
+        <v>73432454212</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="1">
+        <v>79068014337</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1">
+        <v>79655084068</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1">
+        <v>79058080655</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="360" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="1">
+        <v>79090102435</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="180" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1">
+        <v>79030817407</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="2"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="2"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="2"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="2"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="2"/>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="2"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="2"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="2"/>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="2"/>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B48" s="2"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="2"/>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" s="2"/>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="2"/>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55" s="2"/>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56" s="2"/>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B60" s="2"/>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B62" s="2"/>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B63" s="2"/>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B64" s="2"/>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66" s="2"/>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67" s="2"/>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B68" s="2"/>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B69" s="2"/>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B70" s="2"/>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B73" s="2"/>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B74" s="2"/>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B75" s="2"/>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B76" s="2"/>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B77" s="2"/>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B78" s="2"/>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B79" s="2"/>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B81" s="2"/>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B83" s="2"/>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B84" s="2"/>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B91" s="2"/>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B95" s="2"/>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B97" s="2"/>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B101" s="2"/>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B106" s="2"/>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B107" s="2"/>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B108" s="2"/>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B111" s="2"/>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B114" s="2"/>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B118" s="2"/>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B122" s="2"/>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B124" s="2"/>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B131" s="2"/>
+    </row>
+    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B165" s="2"/>
+    </row>
+    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B167" s="2"/>
+    </row>
+    <row r="198" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B198" s="2"/>
+    </row>
+    <row r="314" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B314" s="2"/>
+    </row>
+    <row r="320" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B320" s="2"/>
+    </row>
+    <row r="330" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B330" s="2"/>
+    </row>
+    <row r="415" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B415" s="2"/>
+    </row>
+    <row r="474" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B474" s="2"/>
+    </row>
+    <row r="510" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B510" s="2"/>
+    </row>
+    <row r="523" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B523" s="2"/>
+    </row>
+    <row r="553" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B553" s="2"/>
+    </row>
+    <row r="571" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B571" s="2"/>
+    </row>
+    <row r="644" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B644" s="2"/>
+    </row>
+    <row r="667" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B667" s="2"/>
+    </row>
+    <row r="687" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B687" s="2"/>
+    </row>
+    <row r="702" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B702" s="2"/>
+    </row>
+    <row r="742" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B742" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
